--- a/biology/Botanique/Rosidées/Rosidées.xlsx
+++ b/biology/Botanique/Rosidées/Rosidées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rosid%C3%A9es</t>
+          <t>Rosidées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Rosanae sont un super-ordre de plantes à fleurs formant le clade des Rosidées, l'un des deux principaux clades des Dicotylédones vraies avec les Astéridées dans la classification phylogénétique APG III (2009)[1].
-Les Rosidées sont des Eudicotylédones supérieures dialypétales disciflores, à fleurs cycliques, hétérochlamydes, (tétra-) pentamères, à étamines libres, ovule bitégumenté et crassinucellé[2].
-Une partie des taxons de ce clade étaient référencés dans la sous-classe des Rosidae dans la classification classique de Cronquist (1981)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Rosanae sont un super-ordre de plantes à fleurs formant le clade des Rosidées, l'un des deux principaux clades des Dicotylédones vraies avec les Astéridées dans la classification phylogénétique APG III (2009).
+Les Rosidées sont des Eudicotylédones supérieures dialypétales disciflores, à fleurs cycliques, hétérochlamydes, (tétra-) pentamères, à étamines libres, ovule bitégumenté et crassinucellé.
+Une partie des taxons de ce clade étaient référencés dans la sous-classe des Rosidae dans la classification classique de Cronquist (1981).
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rosid%C3%A9es</t>
+          <t>Rosidées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Rosanae est créé en 1967 par le botaniste soviéto-arménien Armen Takhtajan, publié dans son ouvrage Sistema i Filogeniia Tsvetkovykh Rastenii[4]. Il est formé à partir du nom du genre type Rosa (rosier), suivi de la terminaison -anae commune aux super-ordres en nomenclature botanique.
-En 1992, Thorne met à jour sa classification et accepte la terminaison -anae pour les super-ordres à la place du « traditionnel mais inapproprié » -iflorae. Il place alors dix ordres (voir infra) dans les Rosanae[5]. En 2007, Thorne et Reveal[6] n'y placent que deux ordres, les Rosales et les Fabales, puis, en 2009, Takhtajan publie sa seconde édition de son ouvrage Flowering Plants[7], dans lequel le super-ordre des Rosanae, classé dans la sous-classe des Rosidae, classe des Magnoliopsida (Dicotylédones), division des Magnoliophyta (plantes à fleurs), regroupe neuf ordres (voir infra).
-La même année, le clade des « rosids » est défini par la classification phylogénétique APG III (2009)[1], mais ne reçoit pas encore de nom scientifique ni de rang taxinomique. Le nom Rosanae est choisi pour ce clade par Chase et Reveal (2009)[8] qui donnent le rang de super-ordre aux clades principaux d'Angiospermes. Les Angiospermes correspondent alors à la sous-classe des Magnoliidae, de la classe des Equisetopsida qui regroupe toutes les plantes terrestres, en cohérence avec la publication de Lewis et McCourt (2004)[9] selon laquelle, si les principaux clades d'algues vertes sont reconnus comme des classes, alors toutes les plantes terrestres devraient être incluses dans une seule classe. La classification de Chase et Reveal est suivie par Tropicos                                           (11 juillet 2022)[10] et l'INPN      (11 juillet 2022)[11], étant applicable aux mises à jour de la classification phylogénétique APG IV (2016)[12]. En 2015, Ruggiero et al.[13] publient pour le Catalogue of Life une classification de tous les ordres du vivant. Les super-ordres de Chase et Reveal[8] sont alors conservés mais les plantes à fleurs sont élevées au rang de la super-classe des Angiospermae et les plantes terrestres sont regroupées dans la super-division des Embryophyta, en cohérence avec l'attribution traditionnelle du statut de division aux principaux sous-groupes de Bryophytes, de Ptéridophytes et de plantes à graines[13]. Cette classification est suivie par l'ITIS      (11 juillet 2022)[14] et le World Register of Marine Species                               (11 juillet 2022)[15].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Rosanae est créé en 1967 par le botaniste soviéto-arménien Armen Takhtajan, publié dans son ouvrage Sistema i Filogeniia Tsvetkovykh Rastenii. Il est formé à partir du nom du genre type Rosa (rosier), suivi de la terminaison -anae commune aux super-ordres en nomenclature botanique.
+En 1992, Thorne met à jour sa classification et accepte la terminaison -anae pour les super-ordres à la place du « traditionnel mais inapproprié » -iflorae. Il place alors dix ordres (voir infra) dans les Rosanae. En 2007, Thorne et Reveal n'y placent que deux ordres, les Rosales et les Fabales, puis, en 2009, Takhtajan publie sa seconde édition de son ouvrage Flowering Plants, dans lequel le super-ordre des Rosanae, classé dans la sous-classe des Rosidae, classe des Magnoliopsida (Dicotylédones), division des Magnoliophyta (plantes à fleurs), regroupe neuf ordres (voir infra).
+La même année, le clade des « rosids » est défini par la classification phylogénétique APG III (2009), mais ne reçoit pas encore de nom scientifique ni de rang taxinomique. Le nom Rosanae est choisi pour ce clade par Chase et Reveal (2009) qui donnent le rang de super-ordre aux clades principaux d'Angiospermes. Les Angiospermes correspondent alors à la sous-classe des Magnoliidae, de la classe des Equisetopsida qui regroupe toutes les plantes terrestres, en cohérence avec la publication de Lewis et McCourt (2004) selon laquelle, si les principaux clades d'algues vertes sont reconnus comme des classes, alors toutes les plantes terrestres devraient être incluses dans une seule classe. La classification de Chase et Reveal est suivie par Tropicos                                           (11 juillet 2022) et l'INPN      (11 juillet 2022), étant applicable aux mises à jour de la classification phylogénétique APG IV (2016). En 2015, Ruggiero et al. publient pour le Catalogue of Life une classification de tous les ordres du vivant. Les super-ordres de Chase et Reveal sont alors conservés mais les plantes à fleurs sont élevées au rang de la super-classe des Angiospermae et les plantes terrestres sont regroupées dans la super-division des Embryophyta, en cohérence avec l'attribution traditionnelle du statut de division aux principaux sous-groupes de Bryophytes, de Ptéridophytes et de plantes à graines. Cette classification est suivie par l'ITIS      (11 juillet 2022) et le World Register of Marine Species                               (11 juillet 2022).
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rosid%C3%A9es</t>
+          <t>Rosidées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'ITIS      (11 juillet 2022)[14], d'après Ruggiero et al. (2015)[13] (17 ordres) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'ITIS      (11 juillet 2022), d'après Ruggiero et al. (2015) (17 ordres) :
 Brassicales
 Celastrales
 Crossosomatales
@@ -566,7 +582,7 @@
 Sapindales
 Vitales
 Zygophyllales
-Selon Tropicos                                           (11 juillet 2022)[10] (liste brute contenant des synonymes) :
+Selon Tropicos                                           (11 juillet 2022) (liste brute contenant des synonymes) :
 Acerales Bercht. &amp; J.Presl, 1820
 Anisophylleales Takht. ex Reveal &amp; Doweld, 1999
 Barbeyales Takht. ex Reveal &amp; Takht., 1993
@@ -578,7 +594,7 @@
 Celastrales Link, 1829
 Chrysobalanales Takht. ex Reveal &amp; Doweld, 1999
 Chrysobalanales Link, 1829
-Connarales Takht. ex Reveal, 1995 [1996]
+Connarales Takht. ex Reveal, 1995 
 Connarales Link, 1829
 Crossosomatales Takht. ex Reveal, 1993
 Cucurbitales Juss. ex Bercht. &amp; J.Presl, 1820
@@ -611,10 +627,10 @@
 Urticales Juss. ex Bercht. &amp; J.Presl, 1820
 Violales Vent. ex Bercht. &amp; J.Presl, 1820
 Vitales Juss. ex Bercht. &amp; J.Presl, 1820
-Vitales Takht. ex Reveal, 1995 [1996]
+Vitales Takht. ex Reveal, 1995 
 Zygophyllales Takht. ex Reveal &amp; Doweld, 1999
 Zygophyllales Link, 1829
-Selon Takhtajan (2009)[7] (neuf ordres) :
+Selon Takhtajan (2009) (neuf ordres) :
 Cunoniales
 Cunoniaceae
 Brunelliaceae
@@ -648,7 +664,7 @@
 Dichapetalaceae
 Trigoniaceae
 Euphroniaceae
-Selon Thorne et Reveal (2007)[6] (deux ordres) :
+Selon Thorne et Reveal (2007) (deux ordres) :
 Rosales
 Rosaceae
 Fabales
@@ -656,7 +672,7 @@
 Fabaceae
 Polygalaceae
 Surianaceae
-Selon Thorne (1992)[5] (dix ordres) :
+Selon Thorne (1992) (dix ordres) :
 Hamamelidales
 Casuarinales
 Balanopales (nl)
@@ -677,7 +693,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rosid%C3%A9es</t>
+          <t>Rosidées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -695,10 +711,12 @@
           <t>APG III et IV</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Dans la classification phylogénétique APG IV (2016)[12], les Rosidées descendent des Superrosidées.
-Dans la classification phylogénétique APG III (2009)[1], elles comprennent :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dans la classification phylogénétique APG IV (2016), les Rosidées descendent des Superrosidées.
+Dans la classification phylogénétique APG III (2009), elles comprennent :
 clade des Rosidées (anglais rosids)
 ordre des Vitales
 clade des Fabidées ou Eurosidées I
@@ -728,7 +746,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rosid%C3%A9es</t>
+          <t>Rosidées</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -746,9 +764,11 @@
           <t>APG II</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour rappel, voilà la classification phylogénétique APG II (2003)[16] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour rappel, voilà la classification phylogénétique APG II (2003) :
 clade des Rosidées
 famille des Aphloiaceae
 famille des Geissolomataceae
